--- a/scriptspy/data/utility_perks.xlsx
+++ b/scriptspy/data/utility_perks.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373CEA96-49AD-4020-8468-3416BBE487B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D672E-A3DC-42CB-8E8F-11EF44378C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>Item</t>
   </si>
@@ -75,9 +78,6 @@
     <t>"Vigor"_Shield_Duration</t>
   </si>
   <si>
-    <t>0.6s DURATION</t>
-  </si>
-  <si>
     <t>75 Shield HIT_POINT</t>
   </si>
   <si>
@@ -97,6 +97,45 @@
   </si>
   <si>
     <t>1s DURATION</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>4% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>7,5% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>0.3s DURATION</t>
+  </si>
+  <si>
+    <t>30 Shield HIT_POINT</t>
+  </si>
+  <si>
+    <t>15 Shield HIT_POINT</t>
+  </si>
+  <si>
+    <t>0,4s DURATION</t>
+  </si>
+  <si>
+    <t>0,7s DURATION</t>
+  </si>
+  <si>
+    <t>0.8s DURATION</t>
+  </si>
+  <si>
+    <t>0.3s Stun DURATION</t>
+  </si>
+  <si>
+    <t>0.5s Stun DURATION</t>
   </si>
 </sst>
 </file>
@@ -125,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +179,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F4BC"/>
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,19 +286,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -245,6 +319,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6628B8-104D-469B-B083-89325A65F9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="95250"/>
+          <a:ext cx="7248525" cy="4025266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>READ FIRST</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: #e2efda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any thing here.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Note : If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,10 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}">
-  <dimension ref="A1:E6"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +822,7 @@
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -576,92 +842,287 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E17" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tesla_Bolt"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scriptspy/data/utility_perks.xlsx
+++ b/scriptspy/data/utility_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\BattleBay_tool\scriptspy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D672E-A3DC-42CB-8E8F-11EF44378C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF36B4-9FA6-42EA-B69C-B36086DFFB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>0.5s Stun DURATION</t>
+  </si>
+  <si>
+    <t>5% PROJECTILE_SPEED</t>
   </si>
 </sst>
 </file>
@@ -294,8 +297,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -513,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +556,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +662,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,7 +816,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,8 +1093,8 @@
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>7</v>
+      <c r="D16" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>22</v>

--- a/scriptspy/data/utility_perks.xlsx
+++ b/scriptspy/data/utility_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF36B4-9FA6-42EA-B69C-B36086DFFB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A223F-BC27-4FFE-BF90-C4CF6BF7516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Item</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>5% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>2% COOL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -812,11 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -862,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -896,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -913,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -930,7 +932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -964,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -981,7 +983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
@@ -1049,24 +1051,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1118,13 +1120,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E17" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tesla_Bolt"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E17" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
